--- a/SchedulingData/dynamic10/pso/scheduling1_19.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling1_19.xlsx
@@ -462,287 +462,287 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>59.66</v>
+        <v>81.2</v>
       </c>
       <c r="E2" t="n">
-        <v>26.204</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>40.88</v>
+        <v>49.5</v>
       </c>
       <c r="E3" t="n">
-        <v>26.612</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>64.56</v>
+        <v>75.84</v>
       </c>
       <c r="E4" t="n">
-        <v>27.184</v>
+        <v>25.576</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>75.84</v>
       </c>
       <c r="D5" t="n">
-        <v>53.8</v>
+        <v>128.14</v>
       </c>
       <c r="E5" t="n">
-        <v>25.32</v>
+        <v>22.456</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>64.56</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>120.76</v>
+        <v>59.66</v>
       </c>
       <c r="E6" t="n">
-        <v>22.704</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>59.66</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>110.86</v>
+        <v>40.88</v>
       </c>
       <c r="E7" t="n">
-        <v>23.684</v>
+        <v>26.612</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>81.2</v>
       </c>
       <c r="D8" t="n">
-        <v>49.5</v>
+        <v>141.4</v>
       </c>
       <c r="E8" t="n">
-        <v>27.24</v>
+        <v>21.62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>59.66</v>
       </c>
       <c r="D9" t="n">
-        <v>51.86</v>
+        <v>91.02</v>
       </c>
       <c r="E9" t="n">
-        <v>26.984</v>
+        <v>23.708</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>110.86</v>
+        <v>141.4</v>
       </c>
       <c r="D10" t="n">
-        <v>167.38</v>
+        <v>212.7</v>
       </c>
       <c r="E10" t="n">
-        <v>19.652</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>49.5</v>
+        <v>91.02</v>
       </c>
       <c r="D11" t="n">
-        <v>107.1</v>
+        <v>163.42</v>
       </c>
       <c r="E11" t="n">
-        <v>23.1</v>
+        <v>19.088</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>120.76</v>
+        <v>49.5</v>
       </c>
       <c r="D12" t="n">
-        <v>181.2</v>
+        <v>117.7</v>
       </c>
       <c r="E12" t="n">
-        <v>18.28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>181.2</v>
+        <v>128.14</v>
       </c>
       <c r="D13" t="n">
-        <v>232.46</v>
+        <v>170.34</v>
       </c>
       <c r="E13" t="n">
-        <v>15.784</v>
+        <v>19.856</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>40.88</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>127.98</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>21.992</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>107.1</v>
+        <v>170.34</v>
       </c>
       <c r="D15" t="n">
-        <v>157.4</v>
+        <v>219</v>
       </c>
       <c r="E15" t="n">
-        <v>19.2</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>167.38</v>
+        <v>117.7</v>
       </c>
       <c r="D16" t="n">
-        <v>237.6</v>
+        <v>170.3</v>
       </c>
       <c r="E16" t="n">
-        <v>16.74</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="17">
@@ -751,188 +751,188 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>157.4</v>
+        <v>170.3</v>
       </c>
       <c r="D17" t="n">
-        <v>199.7</v>
+        <v>208.64</v>
       </c>
       <c r="E17" t="n">
-        <v>16.6</v>
+        <v>16.676</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>51.86</v>
+        <v>40.88</v>
       </c>
       <c r="D18" t="n">
-        <v>124.06</v>
+        <v>106.7</v>
       </c>
       <c r="E18" t="n">
-        <v>22.364</v>
+        <v>23.62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>53.8</v>
+        <v>219</v>
       </c>
       <c r="D19" t="n">
-        <v>122.24</v>
+        <v>272.44</v>
       </c>
       <c r="E19" t="n">
-        <v>22.056</v>
+        <v>13.876</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>232.46</v>
+        <v>208.64</v>
       </c>
       <c r="D20" t="n">
-        <v>300.6</v>
+        <v>263.76</v>
       </c>
       <c r="E20" t="n">
-        <v>13.08</v>
+        <v>13.764</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>237.6</v>
+        <v>212.7</v>
       </c>
       <c r="D21" t="n">
-        <v>281.56</v>
+        <v>277.16</v>
       </c>
       <c r="E21" t="n">
-        <v>13.984</v>
+        <v>16.284</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>199.7</v>
+        <v>106.7</v>
       </c>
       <c r="D22" t="n">
-        <v>260.76</v>
+        <v>151.46</v>
       </c>
       <c r="E22" t="n">
-        <v>13.584</v>
+        <v>20.764</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>122.24</v>
+        <v>263.76</v>
       </c>
       <c r="D23" t="n">
-        <v>180.94</v>
+        <v>320.12</v>
       </c>
       <c r="E23" t="n">
-        <v>18.816</v>
+        <v>10.748</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>124.06</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>185.18</v>
+        <v>135.6</v>
       </c>
       <c r="E24" t="n">
-        <v>19.372</v>
+        <v>21.22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>300.6</v>
+        <v>151.46</v>
       </c>
       <c r="D25" t="n">
-        <v>355.26</v>
+        <v>204.26</v>
       </c>
       <c r="E25" t="n">
-        <v>10.224</v>
+        <v>16.624</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>185.18</v>
+        <v>163.42</v>
       </c>
       <c r="D26" t="n">
-        <v>231.54</v>
+        <v>212.36</v>
       </c>
       <c r="E26" t="n">
-        <v>16.356</v>
+        <v>15.824</v>
       </c>
     </row>
     <row r="27">
@@ -941,60 +941,60 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>180.94</v>
+        <v>204.26</v>
       </c>
       <c r="D27" t="n">
-        <v>223.54</v>
+        <v>282.16</v>
       </c>
       <c r="E27" t="n">
-        <v>15.696</v>
+        <v>11.944</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>260.76</v>
+        <v>282.16</v>
       </c>
       <c r="D28" t="n">
-        <v>325.56</v>
+        <v>353.02</v>
       </c>
       <c r="E28" t="n">
-        <v>8.724</v>
+        <v>8.928000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>231.54</v>
+        <v>135.6</v>
       </c>
       <c r="D29" t="n">
-        <v>287.04</v>
+        <v>187.22</v>
       </c>
       <c r="E29" t="n">
-        <v>12.436</v>
+        <v>17.188</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1002,32 +1002,32 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>223.54</v>
+        <v>272.44</v>
       </c>
       <c r="D30" t="n">
-        <v>283.84</v>
+        <v>327.64</v>
       </c>
       <c r="E30" t="n">
-        <v>13.276</v>
+        <v>11.456</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>287.04</v>
+        <v>187.22</v>
       </c>
       <c r="D31" t="n">
-        <v>375.08</v>
+        <v>258.58</v>
       </c>
       <c r="E31" t="n">
-        <v>9.212</v>
+        <v>14.172</v>
       </c>
     </row>
   </sheetData>
